--- a/CloudTest/SampleData/PatientCommonDataSample.xlsx
+++ b/CloudTest/SampleData/PatientCommonDataSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BE_new\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B7C1D-1960-4867-AFB5-7ED1A1FF5470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94301720-5B74-481B-B5E8-6D193EEB211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_MEMO" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="RAIIN_INF" sheetId="26" r:id="rId3"/>
     <sheet name="PT_CMT" sheetId="27" r:id="rId4"/>
     <sheet name="PT_INF" sheetId="28" r:id="rId5"/>
+    <sheet name="PT_HOKEN_CHECK" sheetId="29" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Test</t>
   </si>
@@ -290,6 +291,36 @@
   </si>
   <si>
     <t>2023-04-18 00:25:47.131</t>
+  </si>
+  <si>
+    <t>hoken_grp</t>
+  </si>
+  <si>
+    <t>hoken_id</t>
+  </si>
+  <si>
+    <t>check_date</t>
+  </si>
+  <si>
+    <t>check_id</t>
+  </si>
+  <si>
+    <t>check_machine</t>
+  </si>
+  <si>
+    <t>check_cmt</t>
+  </si>
+  <si>
+    <t>2022-12-13 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Duong confirmed</t>
+  </si>
+  <si>
+    <t>2022-12-13 08:45:54.355</t>
+  </si>
+  <si>
+    <t>2022-12-14 09:14:54.194</t>
   </si>
 </sst>
 </file>
@@ -644,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A206C908-B73B-4F57-9BEE-2DB1C5F880C2}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1369,4 +1400,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1173DF-4851-4ED0-87FB-7A8B45EB3D5F}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>999999999</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CloudTest/SampleData/PatientCommonDataSample.xlsx
+++ b/CloudTest/SampleData/PatientCommonDataSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BE_new\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94301720-5B74-481B-B5E8-6D193EEB211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF4AD9-B071-4113-AFD0-54E19DDA4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_MEMO" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PT_CMT" sheetId="27" r:id="rId4"/>
     <sheet name="PT_INF" sheetId="28" r:id="rId5"/>
     <sheet name="PT_HOKEN_CHECK" sheetId="29" r:id="rId6"/>
+    <sheet name="PT_BYOMEI" sheetId="30" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>Test</t>
   </si>
@@ -321,6 +322,123 @@
   </si>
   <si>
     <t>2022-12-14 09:14:54.194</t>
+  </si>
+  <si>
+    <t>byomei_cd</t>
+  </si>
+  <si>
+    <t>sort_no</t>
+  </si>
+  <si>
+    <t>syusyoku_cd1</t>
+  </si>
+  <si>
+    <t>syusyoku_cd2</t>
+  </si>
+  <si>
+    <t>syusyoku_cd3</t>
+  </si>
+  <si>
+    <t>syusyoku_cd4</t>
+  </si>
+  <si>
+    <t>syusyoku_cd5</t>
+  </si>
+  <si>
+    <t>syusyoku_cd6</t>
+  </si>
+  <si>
+    <t>syusyoku_cd7</t>
+  </si>
+  <si>
+    <t>syusyoku_cd8</t>
+  </si>
+  <si>
+    <t>syusyoku_cd9</t>
+  </si>
+  <si>
+    <t>syusyoku_cd10</t>
+  </si>
+  <si>
+    <t>syusyoku_cd11</t>
+  </si>
+  <si>
+    <t>syusyoku_cd12</t>
+  </si>
+  <si>
+    <t>syusyoku_cd13</t>
+  </si>
+  <si>
+    <t>syusyoku_cd14</t>
+  </si>
+  <si>
+    <t>syusyoku_cd15</t>
+  </si>
+  <si>
+    <t>syusyoku_cd16</t>
+  </si>
+  <si>
+    <t>syusyoku_cd17</t>
+  </si>
+  <si>
+    <t>syusyoku_cd18</t>
+  </si>
+  <si>
+    <t>syusyoku_cd19</t>
+  </si>
+  <si>
+    <t>syusyoku_cd20</t>
+  </si>
+  <si>
+    <t>syusyoku_cd21</t>
+  </si>
+  <si>
+    <t>byomei</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>tenki_kbn</t>
+  </si>
+  <si>
+    <t>tenki_date</t>
+  </si>
+  <si>
+    <t>syubyo_kbn</t>
+  </si>
+  <si>
+    <t>sikkan_kbn</t>
+  </si>
+  <si>
+    <t>nanbyo_cd</t>
+  </si>
+  <si>
+    <t>hosoku_cmt</t>
+  </si>
+  <si>
+    <t>togetu_byomei</t>
+  </si>
+  <si>
+    <t>is_nodsp_rece</t>
+  </si>
+  <si>
+    <t>is_nodsp_karte</t>
+  </si>
+  <si>
+    <t>is_important</t>
+  </si>
+  <si>
+    <t>2021-09-07 17:55:00.000</t>
+  </si>
+  <si>
+    <t>285YMMT07</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:15:58.949</t>
+  </si>
+  <si>
+    <t>285YMMT12</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1173DF-4851-4ED0-87FB-7A8B45EB3D5F}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,4 +1631,247 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C0154C-0C29-4888-B0E5-9254D3EAD146}">
+  <dimension ref="A1:AU2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>999999999</v>
+      </c>
+      <c r="C2">
+        <v>775997</v>
+      </c>
+      <c r="D2">
+        <v>5738002</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>8002</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>20210907</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT2">
+        <v>2</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CloudTest/SampleData/PatientCommonDataSample.xlsx
+++ b/CloudTest/SampleData/PatientCommonDataSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BE_new\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF4AD9-B071-4113-AFD0-54E19DDA4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33F09D3-798C-4BDD-8205-1216D1FC19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_MEMO" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="PT_INF" sheetId="28" r:id="rId5"/>
     <sheet name="PT_HOKEN_CHECK" sheetId="29" r:id="rId6"/>
     <sheet name="PT_BYOMEI" sheetId="30" r:id="rId7"/>
+    <sheet name="BYOMEI_MST" sheetId="31" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
   <si>
     <t>Test</t>
   </si>
@@ -439,6 +440,102 @@
   </si>
   <si>
     <t>285YMMT12</t>
+  </si>
+  <si>
+    <t>HP_ID</t>
+  </si>
+  <si>
+    <t>BYOMEI_CD</t>
+  </si>
+  <si>
+    <t>BYOMEI</t>
+  </si>
+  <si>
+    <t>SBYOMEI</t>
+  </si>
+  <si>
+    <t>KANA_NAME1</t>
+  </si>
+  <si>
+    <t>KANA_NAME2</t>
+  </si>
+  <si>
+    <t>KANA_NAME3</t>
+  </si>
+  <si>
+    <t>KANA_NAME4</t>
+  </si>
+  <si>
+    <t>KANA_NAME5</t>
+  </si>
+  <si>
+    <t>KANA_NAME6</t>
+  </si>
+  <si>
+    <t>KANA_NAME7</t>
+  </si>
+  <si>
+    <t>IKO_CD</t>
+  </si>
+  <si>
+    <t>SIKKAN_CD</t>
+  </si>
+  <si>
+    <t>TANDOKU_KINSI</t>
+  </si>
+  <si>
+    <t>HOKEN_GAI</t>
+  </si>
+  <si>
+    <t>BYOMEI_KANRI</t>
+  </si>
+  <si>
+    <t>SAITAKU_KBN</t>
+  </si>
+  <si>
+    <t>KOUKAN_CD</t>
+  </si>
+  <si>
+    <t>SYUSAI_DATE</t>
+  </si>
+  <si>
+    <t>UPD_DATE</t>
+  </si>
+  <si>
+    <t>DEL_DATE</t>
+  </si>
+  <si>
+    <t>NANBYO_CD</t>
+  </si>
+  <si>
+    <t>ICD10_1</t>
+  </si>
+  <si>
+    <t>ICD10_2</t>
+  </si>
+  <si>
+    <t>ICD10_1_2013</t>
+  </si>
+  <si>
+    <t>ICD10_2_2013</t>
+  </si>
+  <si>
+    <t>IS_ADOPTED</t>
+  </si>
+  <si>
+    <t>SYUSYOKU_KBN</t>
+  </si>
+  <si>
+    <t>Test Byomei</t>
+  </si>
+  <si>
+    <t>S5EJ</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>Luu0008</t>
   </si>
 </sst>
 </file>
@@ -475,8 +572,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1637,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C0154C-0C29-4888-B0E5-9254D3EAD146}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,8 +1899,8 @@
       <c r="C2">
         <v>775997</v>
       </c>
-      <c r="D2">
-        <v>5738002</v>
+      <c r="D2" t="s">
+        <v>167</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1869,6 +1967,201 @@
       </c>
       <c r="AU2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378321F7-CD2A-49F1-B0A3-97E7C311B270}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="27" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" customWidth="1"/>
+    <col min="29" max="29" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>20095897</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>165</v>
+      </c>
+      <c r="S2">
+        <v>20110301</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>99999999</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>166</v>
+      </c>
+      <c r="X2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/PatientCommonDataSample.xlsx
+++ b/CloudTest/SampleData/PatientCommonDataSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BE_new\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33F09D3-798C-4BDD-8205-1216D1FC19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B469E939-3629-4173-956E-D8316B64EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{1EE0AC96-80AB-44A0-ACE0-FD2CAF1FB7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_MEMO" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="PT_HOKEN_CHECK" sheetId="29" r:id="rId6"/>
     <sheet name="PT_BYOMEI" sheetId="30" r:id="rId7"/>
     <sheet name="BYOMEI_MST" sheetId="31" r:id="rId8"/>
+    <sheet name="SYSTEM_CONF" sheetId="32" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
   <si>
     <t>Test</t>
   </si>
@@ -536,6 +537,27 @@
   </si>
   <si>
     <t>Luu0008</t>
+  </si>
+  <si>
+    <t>grp_cd</t>
+  </si>
+  <si>
+    <t>grp_eda_no</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>biko</t>
+  </si>
+  <si>
+    <t>2021-09-11 16:30:23.187</t>
+  </si>
+  <si>
+    <t>2024-02-29 23:08:47.816</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378321F7-CD2A-49F1-B0A3-97E7C311B270}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
@@ -2167,4 +2189,112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD189E63-4E81-49CA-8583-B120BA35CE56}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1014</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>